--- a/www/IndicatorsPerCountry/Italy_GDPperCapita_TerritorialRef_1946_2012_CCode_380.xlsx
+++ b/www/IndicatorsPerCountry/Italy_GDPperCapita_TerritorialRef_1946_2012_CCode_380.xlsx
@@ -633,13 +633,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Italy_GDPperCapita_TerritorialRef_1946_2012_CCode_380.xlsx
+++ b/www/IndicatorsPerCountry/Italy_GDPperCapita_TerritorialRef_1946_2012_CCode_380.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="259">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,574 +36,724 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1532.85353982</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>1458.82368136</t>
-  </si>
-  <si>
-    <t>1363.02033512</t>
-  </si>
-  <si>
-    <t>1397.85791557</t>
-  </si>
-  <si>
-    <t>1476.24247159</t>
-  </si>
-  <si>
-    <t>1345.6015449</t>
-  </si>
-  <si>
-    <t>1389.14852046</t>
-  </si>
-  <si>
-    <t>1428.34079847</t>
-  </si>
-  <si>
-    <t>1489.30656425</t>
-  </si>
-  <si>
-    <t>1441.40489113</t>
-  </si>
-  <si>
-    <t>1480.59716914</t>
-  </si>
-  <si>
-    <t>1563.33642271</t>
-  </si>
-  <si>
-    <t>1572.04581782</t>
-  </si>
-  <si>
-    <t>1450.11428625</t>
-  </si>
-  <si>
-    <t>1402.21261313</t>
-  </si>
-  <si>
-    <t>1432.69549602</t>
-  </si>
-  <si>
-    <t>1471.88777403</t>
-  </si>
-  <si>
-    <t>1423.98610091</t>
-  </si>
-  <si>
-    <t>1415.2767058</t>
-  </si>
-  <si>
-    <t>1524.1441447</t>
-  </si>
-  <si>
-    <t>1511.08005204</t>
-  </si>
-  <si>
-    <t>1484.9518667</t>
-  </si>
-  <si>
-    <t>1502.37065692</t>
-  </si>
-  <si>
-    <t>1515.43474959</t>
-  </si>
-  <si>
-    <t>1554.6270276</t>
-  </si>
-  <si>
-    <t>1576.40051538</t>
-  </si>
-  <si>
-    <t>1550.27233004</t>
-  </si>
-  <si>
-    <t>1528.49884226</t>
-  </si>
-  <si>
-    <t>1506.72535448</t>
-  </si>
-  <si>
-    <t>1558.98172515</t>
-  </si>
-  <si>
-    <t>1580.75521294</t>
-  </si>
-  <si>
-    <t>1593.81930561</t>
-  </si>
-  <si>
-    <t>1637.36628117</t>
-  </si>
-  <si>
-    <t>1519.78944715</t>
-  </si>
-  <si>
-    <t>1537.20823737</t>
-  </si>
-  <si>
-    <t>1567.69112027</t>
-  </si>
-  <si>
-    <t>1467.53307647</t>
-  </si>
-  <si>
-    <t>1498.01595937</t>
-  </si>
-  <si>
-    <t>1332.53745223</t>
-  </si>
-  <si>
-    <t>1349.95624245</t>
-  </si>
-  <si>
-    <t>1468.95004602</t>
-  </si>
-  <si>
-    <t>1504.23689115</t>
-  </si>
-  <si>
-    <t>1506.40125128</t>
-  </si>
-  <si>
-    <t>1597.14253841</t>
-  </si>
-  <si>
-    <t>1594.47518797</t>
-  </si>
-  <si>
-    <t>1456.03728674</t>
-  </si>
-  <si>
-    <t>1485.63390113</t>
-  </si>
-  <si>
-    <t>1504.63601773</t>
-  </si>
-  <si>
-    <t>1541.74827114</t>
-  </si>
-  <si>
-    <t>1507.54554664</t>
-  </si>
-  <si>
-    <t>1473.9686579</t>
-  </si>
-  <si>
-    <t>1466.21234455</t>
-  </si>
-  <si>
-    <t>1542.33238213</t>
-  </si>
-  <si>
-    <t>1550.12009945</t>
-  </si>
-  <si>
-    <t>1512.22659249</t>
-  </si>
-  <si>
-    <t>1521.92541083</t>
-  </si>
-  <si>
-    <t>1559.97551294</t>
-  </si>
-  <si>
-    <t>1564.4819731</t>
-  </si>
-  <si>
-    <t>1588.91428413</t>
-  </si>
-  <si>
-    <t>1636.9054242</t>
-  </si>
-  <si>
-    <t>1656.95910102</t>
-  </si>
-  <si>
-    <t>1672.11328486</t>
-  </si>
-  <si>
-    <t>1646.78107225</t>
-  </si>
-  <si>
-    <t>1671.10248412</t>
-  </si>
-  <si>
-    <t>1707.57597351</t>
-  </si>
-  <si>
-    <t>1750.84490707</t>
-  </si>
-  <si>
-    <t>1741.7468819</t>
-  </si>
-  <si>
-    <t>1688.67824746</t>
-  </si>
-  <si>
-    <t>1689.65976094</t>
-  </si>
-  <si>
-    <t>1712.29094797</t>
-  </si>
-  <si>
-    <t>1714.22474741</t>
-  </si>
-  <si>
-    <t>1741.10475286</t>
-  </si>
-  <si>
-    <t>1750.85377343</t>
-  </si>
-  <si>
-    <t>1765.03177545</t>
-  </si>
-  <si>
-    <t>1791.42202334</t>
-  </si>
-  <si>
-    <t>1794.39875244</t>
-  </si>
-  <si>
-    <t>1787.21896715</t>
-  </si>
-  <si>
-    <t>1807.06955384</t>
-  </si>
-  <si>
-    <t>1854.68843844</t>
-  </si>
-  <si>
-    <t>1885.2075585</t>
-  </si>
-  <si>
-    <t>1915.13523871</t>
-  </si>
-  <si>
-    <t>1932.49149813</t>
-  </si>
-  <si>
-    <t>1966.43522702</t>
-  </si>
-  <si>
-    <t>2006.74672341</t>
-  </si>
-  <si>
-    <t>2074.70656146</t>
-  </si>
-  <si>
-    <t>2111.64084894</t>
-  </si>
-  <si>
-    <t>2156.21137227</t>
-  </si>
-  <si>
-    <t>2173.41734022</t>
-  </si>
-  <si>
-    <t>2175.51760837</t>
-  </si>
-  <si>
-    <t>2199.16121016</t>
-  </si>
-  <si>
-    <t>2201.37655941</t>
-  </si>
-  <si>
-    <t>2304.79275742</t>
-  </si>
-  <si>
-    <t>2179.15642533</t>
-  </si>
-  <si>
-    <t>2069.69371853</t>
-  </si>
-  <si>
-    <t>2240.2602968</t>
-  </si>
-  <si>
-    <t>2247.15325501</t>
-  </si>
-  <si>
-    <t>2190.66813699</t>
-  </si>
-  <si>
-    <t>2102.73799898</t>
-  </si>
-  <si>
-    <t>2152.78428463</t>
-  </si>
-  <si>
-    <t>2079.50001256</t>
-  </si>
-  <si>
-    <t>2231.23175435</t>
-  </si>
-  <si>
-    <t>2413.77676036</t>
-  </si>
-  <si>
-    <t>2456.98027094</t>
-  </si>
-  <si>
-    <t>2602.34143032</t>
-  </si>
-  <si>
-    <t>2600.22773965</t>
-  </si>
-  <si>
-    <t>2530.70290463</t>
-  </si>
-  <si>
-    <t>2666.19973762</t>
-  </si>
-  <si>
-    <t>2777.98963726</t>
-  </si>
-  <si>
-    <t>2630.98225597</t>
-  </si>
-  <si>
-    <t>2578.90474634</t>
-  </si>
-  <si>
-    <t>2615.17489994</t>
-  </si>
-  <si>
-    <t>2565.06139296</t>
-  </si>
-  <si>
-    <t>2538.05264083</t>
-  </si>
-  <si>
-    <t>2654.1079247</t>
-  </si>
-  <si>
-    <t>2540.30440457</t>
-  </si>
-  <si>
-    <t>2772.2738079</t>
-  </si>
-  <si>
-    <t>2830.12220323</t>
-  </si>
-  <si>
-    <t>2980.8249609</t>
-  </si>
-  <si>
-    <t>2897.09292014</t>
-  </si>
-  <si>
-    <t>2822.25656756</t>
-  </si>
-  <si>
-    <t>2648.29496738</t>
-  </si>
-  <si>
-    <t>2233.86446164</t>
-  </si>
-  <si>
-    <t>1797.18827618</t>
-  </si>
-  <si>
-    <t>1608.6346378</t>
-  </si>
-  <si>
-    <t>2161.67989507</t>
-  </si>
-  <si>
-    <t>2555.55132344</t>
-  </si>
-  <si>
-    <t>2735.25856155</t>
-  </si>
-  <si>
-    <t>2948.36698225</t>
-  </si>
-  <si>
-    <t>3171.70207033</t>
-  </si>
-  <si>
-    <t>3450.7099712</t>
-  </si>
-  <si>
-    <t>3590.60271687</t>
-  </si>
-  <si>
-    <t>3829.82093436</t>
-  </si>
-  <si>
-    <t>3947.21234252</t>
-  </si>
-  <si>
-    <t>4189.73551587</t>
-  </si>
-  <si>
-    <t>4368.00790815</t>
-  </si>
-  <si>
-    <t>4590.97404075</t>
-  </si>
-  <si>
-    <t>4822.88314244</t>
-  </si>
-  <si>
-    <t>5130.8140345</t>
-  </si>
-  <si>
-    <t>5456.19004802</t>
-  </si>
-  <si>
-    <t>5852.67492307</t>
-  </si>
-  <si>
-    <t>6203.00707131</t>
-  </si>
-  <si>
-    <t>6531.85997605</t>
-  </si>
-  <si>
-    <t>6727.93895423</t>
-  </si>
-  <si>
-    <t>6963.93932071</t>
-  </si>
-  <si>
-    <t>7366.0233115</t>
-  </si>
-  <si>
-    <t>7872.31376027</t>
-  </si>
-  <si>
-    <t>8382.40528638</t>
-  </si>
-  <si>
-    <t>8879.37404683</t>
-  </si>
-  <si>
-    <t>9366.59634973</t>
-  </si>
-  <si>
-    <t>9489.2475777</t>
-  </si>
-  <si>
-    <t>9795.12625594</t>
-  </si>
-  <si>
-    <t>10413.5496737</t>
-  </si>
-  <si>
-    <t>10913.8779464</t>
-  </si>
-  <si>
-    <t>10618.9824795</t>
-  </si>
-  <si>
-    <t>11307.6635448</t>
-  </si>
-  <si>
-    <t>11541.917805</t>
-  </si>
-  <si>
-    <t>11869.4902336</t>
-  </si>
-  <si>
-    <t>12532.288169</t>
-  </si>
-  <si>
-    <t>12927.0179974</t>
-  </si>
-  <si>
-    <t>13018.3221935</t>
-  </si>
-  <si>
-    <t>13064.0132648</t>
-  </si>
-  <si>
-    <t>13208.5971895</t>
-  </si>
-  <si>
-    <t>13634.0949307</t>
-  </si>
-  <si>
-    <t>14009.7727238</t>
-  </si>
-  <si>
-    <t>14408.1052782</t>
-  </si>
-  <si>
-    <t>14867.9193667</t>
-  </si>
-  <si>
-    <t>15484.7030102</t>
-  </si>
-  <si>
-    <t>15996.8773511</t>
-  </si>
-  <si>
-    <t>16313.1275125</t>
-  </si>
-  <si>
-    <t>16562.9480305</t>
-  </si>
-  <si>
-    <t>16634.0074582</t>
-  </si>
-  <si>
-    <t>16440.8383468</t>
-  </si>
-  <si>
-    <t>16761.7395741</t>
-  </si>
-  <si>
-    <t>17216.5952688</t>
-  </si>
-  <si>
-    <t>17378.1204362</t>
-  </si>
-  <si>
-    <t>17675.6549318</t>
-  </si>
-  <si>
-    <t>17908.5395856</t>
-  </si>
-  <si>
-    <t>18140.5164209</t>
-  </si>
-  <si>
-    <t>18761.3716027</t>
-  </si>
-  <si>
-    <t>19062.4399167</t>
-  </si>
-  <si>
-    <t>19100.4710457</t>
-  </si>
-  <si>
-    <t>19006.7084899</t>
-  </si>
-  <si>
-    <t>19210.519704</t>
-  </si>
-  <si>
-    <t>19283.7331714</t>
-  </si>
-  <si>
-    <t>19629.6063533</t>
-  </si>
-  <si>
-    <t>19841.5386712</t>
-  </si>
-  <si>
-    <t>19460.4958473</t>
-  </si>
-  <si>
-    <t>18278.62558</t>
-  </si>
-  <si>
-    <t>18520.4251229</t>
+    <t>2703.47540983607</t>
+  </si>
+  <si>
+    <t>2595.95081967213</t>
+  </si>
+  <si>
+    <t>2557.54918032787</t>
+  </si>
+  <si>
+    <t>2580.59016393443</t>
+  </si>
+  <si>
+    <t>2434.66393442623</t>
+  </si>
+  <si>
+    <t>2634.35245901639</t>
+  </si>
+  <si>
+    <t>2887.80327868852</t>
+  </si>
+  <si>
+    <t>2864.76229508197</t>
+  </si>
+  <si>
+    <t>2979.96721311475</t>
+  </si>
+  <si>
+    <t>2995.32786885246</t>
+  </si>
+  <si>
+    <t>3072.13114754098</t>
+  </si>
+  <si>
+    <t>2872.44262295082</t>
+  </si>
+  <si>
+    <t>2926.20491803279</t>
+  </si>
+  <si>
+    <t>3010.68852459016</t>
+  </si>
+  <si>
+    <t>2849.40163934426</t>
+  </si>
+  <si>
+    <t>2895.48360655738</t>
+  </si>
+  <si>
+    <t>3079.81147540984</t>
+  </si>
+  <si>
+    <t>3102.85245901639</t>
+  </si>
+  <si>
+    <t>2665.0737704918</t>
+  </si>
+  <si>
+    <t>2680.43442622951</t>
+  </si>
+  <si>
+    <t>2711.15573770492</t>
+  </si>
+  <si>
+    <t>2488.4262295082</t>
+  </si>
+  <si>
+    <t>2457.70491803279</t>
+  </si>
+  <si>
+    <t>2603.63114754098</t>
+  </si>
+  <si>
+    <t>2465.38524590164</t>
+  </si>
+  <si>
+    <t>2542.18852459016</t>
+  </si>
+  <si>
+    <t>2534.50819672131</t>
+  </si>
+  <si>
+    <t>2503.7868852459</t>
+  </si>
+  <si>
+    <t>2964.60655737705</t>
+  </si>
+  <si>
+    <t>2880.12295081967</t>
+  </si>
+  <si>
+    <t>2933.88524590164</t>
+  </si>
+  <si>
+    <t>2442.34426229508</t>
+  </si>
+  <si>
+    <t>2549.86885245902</t>
+  </si>
+  <si>
+    <t>2834.04098360656</t>
+  </si>
+  <si>
+    <t>2734.19672131148</t>
+  </si>
+  <si>
+    <t>2757.23770491803</t>
+  </si>
+  <si>
+    <t>2565.22950819672</t>
+  </si>
+  <si>
+    <t>2695.79508196721</t>
+  </si>
+  <si>
+    <t>2526.82786885246</t>
+  </si>
+  <si>
+    <t>2618.99180327869</t>
+  </si>
+  <si>
+    <t>2826.3606557377</t>
+  </si>
+  <si>
+    <t>2419.30327868852</t>
+  </si>
+  <si>
+    <t>2373.22131147541</t>
+  </si>
+  <si>
+    <t>2480.74590163934</t>
+  </si>
+  <si>
+    <t>2403.94262295082</t>
+  </si>
+  <si>
+    <t>2411.62295081967</t>
+  </si>
+  <si>
+    <t>2519.14754098361</t>
+  </si>
+  <si>
+    <t>2365.54098360656</t>
+  </si>
+  <si>
+    <t>2572.90983606557</t>
+  </si>
+  <si>
+    <t>2588.27049180328</t>
+  </si>
+  <si>
+    <t>2511.46721311475</t>
+  </si>
+  <si>
+    <t>2626.67213114754</t>
+  </si>
+  <si>
+    <t>2496.10655737705</t>
+  </si>
+  <si>
+    <t>2396.26229508197</t>
+  </si>
+  <si>
+    <t>2327.1393442623</t>
+  </si>
+  <si>
+    <t>2350.18032786885</t>
+  </si>
+  <si>
+    <t>2273.37704918033</t>
+  </si>
+  <si>
+    <t>2304.09836065574</t>
+  </si>
+  <si>
+    <t>2319.45901639344</t>
+  </si>
+  <si>
+    <t>2426.98360655738</t>
+  </si>
+  <si>
+    <t>2296.41803278689</t>
+  </si>
+  <si>
+    <t>2311.77868852459</t>
+  </si>
+  <si>
+    <t>2388.58196721311</t>
+  </si>
+  <si>
+    <t>2450.02459016393</t>
+  </si>
+  <si>
+    <t>2688.11475409836</t>
+  </si>
+  <si>
+    <t>2642.03278688525</t>
+  </si>
+  <si>
+    <t>2857.08196721311</t>
+  </si>
+  <si>
+    <t>2657.39344262295</t>
+  </si>
+  <si>
+    <t>2941.56557377049</t>
+  </si>
+  <si>
+    <t>3003.00819672131</t>
+  </si>
+  <si>
+    <t>2818.68032786885</t>
+  </si>
+  <si>
+    <t>2787.95901639344</t>
+  </si>
+  <si>
+    <t>2718.83606557377</t>
+  </si>
+  <si>
+    <t>2741.87704918033</t>
+  </si>
+  <si>
+    <t>2749.55737704918</t>
+  </si>
+  <si>
+    <t>2672.75409836066</t>
+  </si>
+  <si>
+    <t>2795.6393442623</t>
+  </si>
+  <si>
+    <t>2764.91803278689</t>
+  </si>
+  <si>
+    <t>2473.06557377049</t>
+  </si>
+  <si>
+    <t>2611.31147540984</t>
+  </si>
+  <si>
+    <t>2803.31967213115</t>
+  </si>
+  <si>
+    <t>2811</t>
+  </si>
+  <si>
+    <t>3033.72950819672</t>
+  </si>
+  <si>
+    <t>2972.2868852459</t>
+  </si>
+  <si>
+    <t>3148.93442622951</t>
+  </si>
+  <si>
+    <t>2949.24590163934</t>
+  </si>
+  <si>
+    <t>3026.04918032787</t>
+  </si>
+  <si>
+    <t>2910.84426229508</t>
+  </si>
+  <si>
+    <t>2726.51639344262</t>
+  </si>
+  <si>
+    <t>2841.72131147541</t>
+  </si>
+  <si>
+    <t>2772.59836065574</t>
+  </si>
+  <si>
+    <t>2780.27868852459</t>
+  </si>
+  <si>
+    <t>2649.7131147541</t>
+  </si>
+  <si>
+    <t>2903.16393442623</t>
+  </si>
+  <si>
+    <t>2380.90163934426</t>
+  </si>
+  <si>
+    <t>2811.12</t>
+  </si>
+  <si>
+    <t>2593</t>
+  </si>
+  <si>
+    <t>2581</t>
+  </si>
+  <si>
+    <t>2715</t>
+  </si>
+  <si>
+    <t>2727</t>
+  </si>
+  <si>
+    <t>2662</t>
+  </si>
+  <si>
+    <t>2678</t>
+  </si>
+  <si>
+    <t>2745</t>
+  </si>
+  <si>
+    <t>2753</t>
+  </si>
+  <si>
+    <t>2796</t>
+  </si>
+  <si>
+    <t>2880</t>
+  </si>
+  <si>
+    <t>2915</t>
+  </si>
+  <si>
+    <t>2942</t>
+  </si>
+  <si>
+    <t>2898</t>
+  </si>
+  <si>
+    <t>2941</t>
+  </si>
+  <si>
+    <t>3005</t>
+  </si>
+  <si>
+    <t>3081</t>
+  </si>
+  <si>
+    <t>3065</t>
+  </si>
+  <si>
+    <t>2971</t>
+  </si>
+  <si>
+    <t>2974</t>
+  </si>
+  <si>
+    <t>3014</t>
+  </si>
+  <si>
+    <t>3017</t>
+  </si>
+  <si>
+    <t>3064</t>
+  </si>
+  <si>
+    <t>3107</t>
+  </si>
+  <si>
+    <t>3153</t>
+  </si>
+  <si>
+    <t>3158</t>
+  </si>
+  <si>
+    <t>3145</t>
+  </si>
+  <si>
+    <t>3180</t>
+  </si>
+  <si>
+    <t>3264</t>
+  </si>
+  <si>
+    <t>3317</t>
+  </si>
+  <si>
+    <t>3371</t>
+  </si>
+  <si>
+    <t>3402</t>
+  </si>
+  <si>
+    <t>3461</t>
+  </si>
+  <si>
+    <t>3532</t>
+  </si>
+  <si>
+    <t>3652</t>
+  </si>
+  <si>
+    <t>3716</t>
+  </si>
+  <si>
+    <t>3795</t>
+  </si>
+  <si>
+    <t>3826</t>
+  </si>
+  <si>
+    <t>3829</t>
+  </si>
+  <si>
+    <t>3870</t>
+  </si>
+  <si>
+    <t>3875</t>
+  </si>
+  <si>
+    <t>4057</t>
+  </si>
+  <si>
+    <t>3835</t>
+  </si>
+  <si>
+    <t>3642</t>
+  </si>
+  <si>
+    <t>3942</t>
+  </si>
+  <si>
+    <t>3955</t>
+  </si>
+  <si>
+    <t>3856</t>
+  </si>
+  <si>
+    <t>3701</t>
+  </si>
+  <si>
+    <t>3789</t>
+  </si>
+  <si>
+    <t>3660</t>
+  </si>
+  <si>
+    <t>3928</t>
+  </si>
+  <si>
+    <t>4248</t>
+  </si>
+  <si>
+    <t>4324</t>
+  </si>
+  <si>
+    <t>4580</t>
+  </si>
+  <si>
+    <t>4576</t>
+  </si>
+  <si>
+    <t>4454</t>
+  </si>
+  <si>
+    <t>4693</t>
+  </si>
+  <si>
+    <t>4889</t>
+  </si>
+  <si>
+    <t>4631</t>
+  </si>
+  <si>
+    <t>4538</t>
+  </si>
+  <si>
+    <t>4602</t>
+  </si>
+  <si>
+    <t>4514</t>
+  </si>
+  <si>
+    <t>4466</t>
+  </si>
+  <si>
+    <t>4670</t>
+  </si>
+  <si>
+    <t>4471</t>
+  </si>
+  <si>
+    <t>4879</t>
+  </si>
+  <si>
+    <t>4981</t>
+  </si>
+  <si>
+    <t>5246</t>
+  </si>
+  <si>
+    <t>5099</t>
+  </si>
+  <si>
+    <t>4967</t>
+  </si>
+  <si>
+    <t>4661</t>
+  </si>
+  <si>
+    <t>3931</t>
+  </si>
+  <si>
+    <t>3162</t>
+  </si>
+  <si>
+    <t>2831</t>
+  </si>
+  <si>
+    <t>3805</t>
+  </si>
+  <si>
+    <t>4498</t>
+  </si>
+  <si>
+    <t>4814</t>
+  </si>
+  <si>
+    <t>5188</t>
+  </si>
+  <si>
+    <t>5582</t>
+  </si>
+  <si>
+    <t>5958</t>
+  </si>
+  <si>
+    <t>6371</t>
+  </si>
+  <si>
+    <t>6790</t>
+  </si>
+  <si>
+    <t>7092</t>
+  </si>
+  <si>
+    <t>7453</t>
+  </si>
+  <si>
+    <t>7745</t>
+  </si>
+  <si>
+    <t>8158</t>
+  </si>
+  <si>
+    <t>8544</t>
+  </si>
+  <si>
+    <t>9011</t>
+  </si>
+  <si>
+    <t>9430</t>
+  </si>
+  <si>
+    <t>10158</t>
+  </si>
+  <si>
+    <t>10882</t>
+  </si>
+  <si>
+    <t>11576</t>
+  </si>
+  <si>
+    <t>11934</t>
+  </si>
+  <si>
+    <t>12111</t>
+  </si>
+  <si>
+    <t>12659</t>
+  </si>
+  <si>
+    <t>13476</t>
+  </si>
+  <si>
+    <t>14513</t>
+  </si>
+  <si>
+    <t>15248</t>
+  </si>
+  <si>
+    <t>15492</t>
+  </si>
+  <si>
+    <t>15683</t>
+  </si>
+  <si>
+    <t>16035</t>
+  </si>
+  <si>
+    <t>16950</t>
+  </si>
+  <si>
+    <t>17607</t>
+  </si>
+  <si>
+    <t>17123</t>
+  </si>
+  <si>
+    <t>18147</t>
+  </si>
+  <si>
+    <t>18599</t>
+  </si>
+  <si>
+    <t>19230</t>
+  </si>
+  <si>
+    <t>20275</t>
+  </si>
+  <si>
+    <t>20959</t>
+  </si>
+  <si>
+    <t>21041</t>
+  </si>
+  <si>
+    <t>21123</t>
+  </si>
+  <si>
+    <t>21345</t>
+  </si>
+  <si>
+    <t>21868</t>
+  </si>
+  <si>
+    <t>22469</t>
+  </si>
+  <si>
+    <t>23106</t>
+  </si>
+  <si>
+    <t>23824</t>
+  </si>
+  <si>
+    <t>24743</t>
+  </si>
+  <si>
+    <t>25454</t>
+  </si>
+  <si>
+    <t>26003</t>
+  </si>
+  <si>
+    <t>26570.3630036769</t>
+  </si>
+  <si>
+    <t>26960.6108434833</t>
+  </si>
+  <si>
+    <t>26902.398223125</t>
+  </si>
+  <si>
+    <t>27668.2579971013</t>
+  </si>
+  <si>
+    <t>28666.3522953456</t>
+  </si>
+  <si>
+    <t>29231.2756037388</t>
+  </si>
+  <si>
+    <t>29960.6997771304</t>
+  </si>
+  <si>
+    <t>30649.6291164165</t>
+  </si>
+  <si>
+    <t>31340.481406664</t>
+  </si>
+  <si>
+    <t>32716.9800507895</t>
+  </si>
+  <si>
+    <t>33511.4332968447</t>
+  </si>
+  <si>
+    <t>33780.053991221</t>
+  </si>
+  <si>
+    <t>33917.7993668408</t>
+  </si>
+  <si>
+    <t>34472.1275698319</t>
+  </si>
+  <si>
+    <t>34872.1266069489</t>
+  </si>
+  <si>
+    <t>35713.8041829319</t>
+  </si>
+  <si>
+    <t>36310.7349426204</t>
+  </si>
+  <si>
+    <t>35942.9393461282</t>
+  </si>
+  <si>
+    <t>34055.2255728451</t>
+  </si>
+  <si>
+    <t>34765.9378953919</t>
+  </si>
+  <si>
+    <t>35151</t>
+  </si>
+  <si>
+    <t>34068</t>
+  </si>
+  <si>
+    <t>33094</t>
+  </si>
+  <si>
+    <t>32829</t>
+  </si>
+  <si>
+    <t>33118</t>
+  </si>
+  <si>
+    <t>33419</t>
   </si>
   <si>
     <t>Description</t>
@@ -755,7 +905,7 @@
         <v>1502.0</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -772,7 +922,7 @@
         <v>1503.0</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -789,7 +939,7 @@
         <v>1504.0</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -806,7 +956,7 @@
         <v>1505.0</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -823,7 +973,7 @@
         <v>1506.0</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -840,7 +990,7 @@
         <v>1507.0</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -857,7 +1007,7 @@
         <v>1508.0</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -874,7 +1024,7 @@
         <v>1509.0</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -891,7 +1041,7 @@
         <v>1510.0</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -908,7 +1058,7 @@
         <v>1511.0</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -925,7 +1075,7 @@
         <v>1512.0</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -942,7 +1092,7 @@
         <v>1513.0</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -959,7 +1109,7 @@
         <v>1514.0</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -976,7 +1126,7 @@
         <v>1515.0</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
@@ -993,7 +1143,7 @@
         <v>1516.0</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -1010,7 +1160,7 @@
         <v>1517.0</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -1027,7 +1177,7 @@
         <v>1518.0</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
@@ -1044,7 +1194,7 @@
         <v>1519.0</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -1061,7 +1211,7 @@
         <v>1520.0</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1228,7 @@
         <v>1521.0</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -1095,7 +1245,7 @@
         <v>1522.0</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -1112,7 +1262,7 @@
         <v>1523.0</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
@@ -1129,7 +1279,7 @@
         <v>1524.0</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
@@ -1146,7 +1296,7 @@
         <v>1525.0</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
@@ -1163,7 +1313,7 @@
         <v>1526.0</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
@@ -1180,7 +1330,7 @@
         <v>1527.0</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
@@ -1197,7 +1347,7 @@
         <v>1528.0</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -1214,7 +1364,7 @@
         <v>1529.0</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
@@ -1231,7 +1381,7 @@
         <v>1530.0</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -1248,7 +1398,7 @@
         <v>1531.0</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -1265,7 +1415,7 @@
         <v>1532.0</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -1282,7 +1432,7 @@
         <v>1533.0</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -1299,7 +1449,7 @@
         <v>1534.0</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -1316,7 +1466,7 @@
         <v>1535.0</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
@@ -1333,7 +1483,7 @@
         <v>1536.0</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
@@ -1350,7 +1500,7 @@
         <v>1537.0</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40">
@@ -1367,7 +1517,7 @@
         <v>1538.0</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
@@ -1384,7 +1534,7 @@
         <v>1539.0</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42">
@@ -1401,7 +1551,7 @@
         <v>1540.0</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43">
@@ -1418,7 +1568,7 @@
         <v>1541.0</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44">
@@ -1435,7 +1585,7 @@
         <v>1542.0</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
@@ -1452,7 +1602,7 @@
         <v>1543.0</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46">
@@ -1469,7 +1619,7 @@
         <v>1544.0</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47">
@@ -1486,7 +1636,7 @@
         <v>1545.0</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -1503,7 +1653,7 @@
         <v>1546.0</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -1520,7 +1670,7 @@
         <v>1547.0</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
@@ -1537,7 +1687,7 @@
         <v>1548.0</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51">
@@ -1554,7 +1704,7 @@
         <v>1549.0</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52">
@@ -1571,7 +1721,7 @@
         <v>1550.0</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53">
@@ -1588,7 +1738,7 @@
         <v>1551.0</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54">
@@ -1605,7 +1755,7 @@
         <v>1552.0</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55">
@@ -1622,7 +1772,7 @@
         <v>1553.0</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
@@ -1639,7 +1789,7 @@
         <v>1554.0</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57">
@@ -1656,7 +1806,7 @@
         <v>1555.0</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58">
@@ -1673,7 +1823,7 @@
         <v>1556.0</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59">
@@ -1690,7 +1840,7 @@
         <v>1557.0</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60">
@@ -1707,7 +1857,7 @@
         <v>1558.0</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61">
@@ -1724,7 +1874,7 @@
         <v>1559.0</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62">
@@ -1741,7 +1891,7 @@
         <v>1560.0</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63">
@@ -1758,7 +1908,7 @@
         <v>1561.0</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64">
@@ -1775,7 +1925,7 @@
         <v>1562.0</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65">
@@ -1792,7 +1942,7 @@
         <v>1563.0</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -1809,7 +1959,7 @@
         <v>1564.0</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67">
@@ -1826,7 +1976,7 @@
         <v>1565.0</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68">
@@ -1843,7 +1993,7 @@
         <v>1566.0</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69">
@@ -1860,7 +2010,7 @@
         <v>1567.0</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70">
@@ -1877,7 +2027,7 @@
         <v>1568.0</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71">
@@ -1894,7 +2044,7 @@
         <v>1569.0</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72">
@@ -1911,7 +2061,7 @@
         <v>1570.0</v>
       </c>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73">
@@ -1928,7 +2078,7 @@
         <v>1571.0</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74">
@@ -1945,7 +2095,7 @@
         <v>1572.0</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="75">
@@ -1962,7 +2112,7 @@
         <v>1573.0</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76">
@@ -1979,7 +2129,7 @@
         <v>1574.0</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77">
@@ -1996,7 +2146,7 @@
         <v>1575.0</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78">
@@ -2013,7 +2163,7 @@
         <v>1576.0</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79">
@@ -2030,7 +2180,7 @@
         <v>1577.0</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80">
@@ -2047,7 +2197,7 @@
         <v>1578.0</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81">
@@ -2064,7 +2214,7 @@
         <v>1579.0</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82">
@@ -2081,7 +2231,7 @@
         <v>1580.0</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83">
@@ -2098,7 +2248,7 @@
         <v>1581.0</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84">
@@ -2115,7 +2265,7 @@
         <v>1582.0</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85">
@@ -2132,7 +2282,7 @@
         <v>1583.0</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86">
@@ -2149,7 +2299,7 @@
         <v>1584.0</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87">
@@ -2166,7 +2316,7 @@
         <v>1585.0</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88">
@@ -2183,7 +2333,7 @@
         <v>1586.0</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89">
@@ -2200,7 +2350,7 @@
         <v>1587.0</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90">
@@ -2217,7 +2367,7 @@
         <v>1588.0</v>
       </c>
       <c r="E90" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91">
@@ -2234,7 +2384,7 @@
         <v>1589.0</v>
       </c>
       <c r="E91" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92">
@@ -2251,7 +2401,7 @@
         <v>1590.0</v>
       </c>
       <c r="E92" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93">
@@ -2268,7 +2418,7 @@
         <v>1591.0</v>
       </c>
       <c r="E93" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94">
@@ -2285,7 +2435,7 @@
         <v>1592.0</v>
       </c>
       <c r="E94" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95">
@@ -2302,7 +2452,7 @@
         <v>1593.0</v>
       </c>
       <c r="E95" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96">
@@ -2319,7 +2469,7 @@
         <v>1594.0</v>
       </c>
       <c r="E96" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97">
@@ -2336,7 +2486,7 @@
         <v>1595.0</v>
       </c>
       <c r="E97" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98">
@@ -2353,7 +2503,7 @@
         <v>1596.0</v>
       </c>
       <c r="E98" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="99">
@@ -2370,7 +2520,7 @@
         <v>1597.0</v>
       </c>
       <c r="E99" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100">
@@ -2387,7 +2537,7 @@
         <v>1598.0</v>
       </c>
       <c r="E100" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101">
@@ -2404,7 +2554,7 @@
         <v>1599.0</v>
       </c>
       <c r="E101" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102">
@@ -2421,7 +2571,7 @@
         <v>1600.0</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="103">
@@ -2438,7 +2588,7 @@
         <v>1601.0</v>
       </c>
       <c r="E103" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="104">
@@ -2455,7 +2605,7 @@
         <v>1602.0</v>
       </c>
       <c r="E104" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="105">
@@ -2472,7 +2622,7 @@
         <v>1603.0</v>
       </c>
       <c r="E105" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="106">
@@ -2489,7 +2639,7 @@
         <v>1604.0</v>
       </c>
       <c r="E106" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107">
@@ -2506,7 +2656,7 @@
         <v>1605.0</v>
       </c>
       <c r="E107" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108">
@@ -2523,7 +2673,7 @@
         <v>1606.0</v>
       </c>
       <c r="E108" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109">
@@ -2540,7 +2690,7 @@
         <v>1607.0</v>
       </c>
       <c r="E109" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110">
@@ -2557,7 +2707,7 @@
         <v>1608.0</v>
       </c>
       <c r="E110" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111">
@@ -2574,7 +2724,7 @@
         <v>1609.0</v>
       </c>
       <c r="E111" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="112">
@@ -2591,7 +2741,7 @@
         <v>1610.0</v>
       </c>
       <c r="E112" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113">
@@ -2608,7 +2758,7 @@
         <v>1611.0</v>
       </c>
       <c r="E113" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114">
@@ -2625,7 +2775,7 @@
         <v>1612.0</v>
       </c>
       <c r="E114" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="115">
@@ -2642,7 +2792,7 @@
         <v>1613.0</v>
       </c>
       <c r="E115" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116">
@@ -2659,7 +2809,7 @@
         <v>1614.0</v>
       </c>
       <c r="E116" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117">
@@ -2676,7 +2826,7 @@
         <v>1615.0</v>
       </c>
       <c r="E117" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="118">
@@ -2693,7 +2843,7 @@
         <v>1616.0</v>
       </c>
       <c r="E118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119">
@@ -2710,7 +2860,7 @@
         <v>1617.0</v>
       </c>
       <c r="E119" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="120">
@@ -2727,7 +2877,7 @@
         <v>1618.0</v>
       </c>
       <c r="E120" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121">
@@ -2744,7 +2894,7 @@
         <v>1619.0</v>
       </c>
       <c r="E121" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="122">
@@ -2761,7 +2911,7 @@
         <v>1620.0</v>
       </c>
       <c r="E122" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="123">
@@ -2778,7 +2928,7 @@
         <v>1621.0</v>
       </c>
       <c r="E123" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="124">
@@ -2795,7 +2945,7 @@
         <v>1622.0</v>
       </c>
       <c r="E124" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="125">
@@ -2812,7 +2962,7 @@
         <v>1623.0</v>
       </c>
       <c r="E125" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126">
@@ -2829,7 +2979,7 @@
         <v>1624.0</v>
       </c>
       <c r="E126" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127">
@@ -2846,7 +2996,7 @@
         <v>1625.0</v>
       </c>
       <c r="E127" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="128">
@@ -2863,7 +3013,7 @@
         <v>1626.0</v>
       </c>
       <c r="E128" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="129">
@@ -2880,7 +3030,7 @@
         <v>1627.0</v>
       </c>
       <c r="E129" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130">
@@ -2897,7 +3047,7 @@
         <v>1628.0</v>
       </c>
       <c r="E130" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="131">
@@ -2914,7 +3064,7 @@
         <v>1629.0</v>
       </c>
       <c r="E131" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="132">
@@ -2931,7 +3081,7 @@
         <v>1630.0</v>
       </c>
       <c r="E132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133">
@@ -2948,7 +3098,7 @@
         <v>1631.0</v>
       </c>
       <c r="E133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134">
@@ -2965,7 +3115,7 @@
         <v>1632.0</v>
       </c>
       <c r="E134" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
     </row>
     <row r="135">
@@ -2982,7 +3132,7 @@
         <v>1633.0</v>
       </c>
       <c r="E135" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136">
@@ -2999,7 +3149,7 @@
         <v>1634.0</v>
       </c>
       <c r="E136" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="137">
@@ -3033,7 +3183,7 @@
         <v>1636.0</v>
       </c>
       <c r="E138" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="139">
@@ -3050,7 +3200,7 @@
         <v>1637.0</v>
       </c>
       <c r="E139" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="140">
@@ -3067,7 +3217,7 @@
         <v>1638.0</v>
       </c>
       <c r="E140" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="141">
@@ -3084,7 +3234,7 @@
         <v>1639.0</v>
       </c>
       <c r="E141" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142">
@@ -3101,7 +3251,7 @@
         <v>1640.0</v>
       </c>
       <c r="E142" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="143">
@@ -3118,7 +3268,7 @@
         <v>1641.0</v>
       </c>
       <c r="E143" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="144">
@@ -3135,7 +3285,7 @@
         <v>1642.0</v>
       </c>
       <c r="E144" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
     </row>
     <row r="145">
@@ -3152,7 +3302,7 @@
         <v>1643.0</v>
       </c>
       <c r="E145" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="146">
@@ -3169,7 +3319,7 @@
         <v>1644.0</v>
       </c>
       <c r="E146" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="147">
@@ -3186,7 +3336,7 @@
         <v>1645.0</v>
       </c>
       <c r="E147" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="148">
@@ -3203,7 +3353,7 @@
         <v>1646.0</v>
       </c>
       <c r="E148" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
     </row>
     <row r="149">
@@ -3220,7 +3370,7 @@
         <v>1647.0</v>
       </c>
       <c r="E149" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="150">
@@ -3237,7 +3387,7 @@
         <v>1648.0</v>
       </c>
       <c r="E150" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="151">
@@ -3254,7 +3404,7 @@
         <v>1649.0</v>
       </c>
       <c r="E151" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152">
@@ -3271,7 +3421,7 @@
         <v>1650.0</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="153">
@@ -3288,7 +3438,7 @@
         <v>1651.0</v>
       </c>
       <c r="E153" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="154">
@@ -3305,7 +3455,7 @@
         <v>1652.0</v>
       </c>
       <c r="E154" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="155">
@@ -3322,7 +3472,7 @@
         <v>1653.0</v>
       </c>
       <c r="E155" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="156">
@@ -3339,7 +3489,7 @@
         <v>1654.0</v>
       </c>
       <c r="E156" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="157">
@@ -3356,7 +3506,7 @@
         <v>1655.0</v>
       </c>
       <c r="E157" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="158">
@@ -3373,7 +3523,7 @@
         <v>1656.0</v>
       </c>
       <c r="E158" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="159">
@@ -3407,7 +3557,7 @@
         <v>1658.0</v>
       </c>
       <c r="E160" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="161">
@@ -3424,7 +3574,7 @@
         <v>1659.0</v>
       </c>
       <c r="E161" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="162">
@@ -3441,7 +3591,7 @@
         <v>1660.0</v>
       </c>
       <c r="E162" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="163">
@@ -3458,7 +3608,7 @@
         <v>1661.0</v>
       </c>
       <c r="E163" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="164">
@@ -3475,7 +3625,7 @@
         <v>1662.0</v>
       </c>
       <c r="E164" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="165">
@@ -3492,7 +3642,7 @@
         <v>1663.0</v>
       </c>
       <c r="E165" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="166">
@@ -3509,7 +3659,7 @@
         <v>1664.0</v>
       </c>
       <c r="E166" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="167">
@@ -3526,7 +3676,7 @@
         <v>1665.0</v>
       </c>
       <c r="E167" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="168">
@@ -3543,7 +3693,7 @@
         <v>1666.0</v>
       </c>
       <c r="E168" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
     </row>
     <row r="169">
@@ -3560,7 +3710,7 @@
         <v>1667.0</v>
       </c>
       <c r="E169" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
     </row>
     <row r="170">
@@ -3577,7 +3727,7 @@
         <v>1668.0</v>
       </c>
       <c r="E170" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="171">
@@ -3594,7 +3744,7 @@
         <v>1669.0</v>
       </c>
       <c r="E171" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="172">
@@ -3611,7 +3761,7 @@
         <v>1670.0</v>
       </c>
       <c r="E172" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173">
@@ -3628,7 +3778,7 @@
         <v>1671.0</v>
       </c>
       <c r="E173" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="174">
@@ -3645,7 +3795,7 @@
         <v>1672.0</v>
       </c>
       <c r="E174" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="175">
@@ -3662,7 +3812,7 @@
         <v>1673.0</v>
       </c>
       <c r="E175" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="176">
@@ -3679,7 +3829,7 @@
         <v>1674.0</v>
       </c>
       <c r="E176" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="177">
@@ -3696,7 +3846,7 @@
         <v>1675.0</v>
       </c>
       <c r="E177" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="178">
@@ -3713,7 +3863,7 @@
         <v>1676.0</v>
       </c>
       <c r="E178" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="179">
@@ -3730,7 +3880,7 @@
         <v>1677.0</v>
       </c>
       <c r="E179" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="180">
@@ -3747,7 +3897,7 @@
         <v>1678.0</v>
       </c>
       <c r="E180" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="181">
@@ -3764,7 +3914,7 @@
         <v>1679.0</v>
       </c>
       <c r="E181" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="182">
@@ -3781,7 +3931,7 @@
         <v>1680.0</v>
       </c>
       <c r="E182" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="183">
@@ -3798,7 +3948,7 @@
         <v>1681.0</v>
       </c>
       <c r="E183" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="184">
@@ -3815,7 +3965,7 @@
         <v>1682.0</v>
       </c>
       <c r="E184" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="185">
@@ -3832,7 +3982,7 @@
         <v>1683.0</v>
       </c>
       <c r="E185" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="186">
@@ -3849,7 +3999,7 @@
         <v>1684.0</v>
       </c>
       <c r="E186" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="187">
@@ -3866,7 +4016,7 @@
         <v>1685.0</v>
       </c>
       <c r="E187" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="188">
@@ -3883,7 +4033,7 @@
         <v>1686.0</v>
       </c>
       <c r="E188" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="189">
@@ -3900,7 +4050,7 @@
         <v>1687.0</v>
       </c>
       <c r="E189" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="190">
@@ -3917,7 +4067,7 @@
         <v>1688.0</v>
       </c>
       <c r="E190" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191">
@@ -3934,7 +4084,7 @@
         <v>1689.0</v>
       </c>
       <c r="E191" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="192">
@@ -3951,7 +4101,7 @@
         <v>1690.0</v>
       </c>
       <c r="E192" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="193">
@@ -3968,7 +4118,7 @@
         <v>1691.0</v>
       </c>
       <c r="E193" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="194">
@@ -3985,7 +4135,7 @@
         <v>1692.0</v>
       </c>
       <c r="E194" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="195">
@@ -4002,7 +4152,7 @@
         <v>1693.0</v>
       </c>
       <c r="E195" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="196">
@@ -4019,7 +4169,7 @@
         <v>1694.0</v>
       </c>
       <c r="E196" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="197">
@@ -4036,7 +4186,7 @@
         <v>1695.0</v>
       </c>
       <c r="E197" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="198">
@@ -4053,7 +4203,7 @@
         <v>1696.0</v>
       </c>
       <c r="E198" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="199">
@@ -4070,7 +4220,7 @@
         <v>1697.0</v>
       </c>
       <c r="E199" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="200">
@@ -4087,7 +4237,7 @@
         <v>1698.0</v>
       </c>
       <c r="E200" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="201">
@@ -4104,7 +4254,7 @@
         <v>1699.0</v>
       </c>
       <c r="E201" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="202">
@@ -4121,7 +4271,7 @@
         <v>1700.0</v>
       </c>
       <c r="E202" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="203">
@@ -4138,7 +4288,7 @@
         <v>1701.0</v>
       </c>
       <c r="E203" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204">
@@ -4155,7 +4305,7 @@
         <v>1702.0</v>
       </c>
       <c r="E204" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="205">
@@ -4189,7 +4339,7 @@
         <v>1704.0</v>
       </c>
       <c r="E206" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="207">
@@ -4206,7 +4356,7 @@
         <v>1705.0</v>
       </c>
       <c r="E207" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="208">
@@ -4223,7 +4373,7 @@
         <v>1706.0</v>
       </c>
       <c r="E208" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="209">
@@ -4240,7 +4390,7 @@
         <v>1707.0</v>
       </c>
       <c r="E209" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="210">
@@ -4257,7 +4407,7 @@
         <v>1708.0</v>
       </c>
       <c r="E210" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="211">
@@ -4274,7 +4424,7 @@
         <v>1709.0</v>
       </c>
       <c r="E211" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="212">
@@ -4291,7 +4441,7 @@
         <v>1710.0</v>
       </c>
       <c r="E212" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="213">
@@ -4308,7 +4458,7 @@
         <v>1711.0</v>
       </c>
       <c r="E213" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="214">
@@ -4325,7 +4475,7 @@
         <v>1712.0</v>
       </c>
       <c r="E214" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="215">
@@ -4342,7 +4492,7 @@
         <v>1713.0</v>
       </c>
       <c r="E215" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="216">
@@ -4359,7 +4509,7 @@
         <v>1714.0</v>
       </c>
       <c r="E216" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217">
@@ -4376,7 +4526,7 @@
         <v>1715.0</v>
       </c>
       <c r="E217" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
     </row>
     <row r="218">
@@ -4393,7 +4543,7 @@
         <v>1716.0</v>
       </c>
       <c r="E218" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="219">
@@ -4410,7 +4560,7 @@
         <v>1717.0</v>
       </c>
       <c r="E219" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="220">
@@ -4427,7 +4577,7 @@
         <v>1718.0</v>
       </c>
       <c r="E220" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="221">
@@ -4444,7 +4594,7 @@
         <v>1719.0</v>
       </c>
       <c r="E221" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222">
@@ -4461,7 +4611,7 @@
         <v>1720.0</v>
       </c>
       <c r="E222" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="223">
@@ -4478,7 +4628,7 @@
         <v>1721.0</v>
       </c>
       <c r="E223" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="224">
@@ -4495,7 +4645,7 @@
         <v>1722.0</v>
       </c>
       <c r="E224" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
     </row>
     <row r="225">
@@ -4512,7 +4662,7 @@
         <v>1723.0</v>
       </c>
       <c r="E225" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="226">
@@ -4529,7 +4679,7 @@
         <v>1724.0</v>
       </c>
       <c r="E226" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
     </row>
     <row r="227">
@@ -4546,7 +4696,7 @@
         <v>1725.0</v>
       </c>
       <c r="E227" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="228">
@@ -4563,7 +4713,7 @@
         <v>1726.0</v>
       </c>
       <c r="E228" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
     </row>
     <row r="229">
@@ -4580,7 +4730,7 @@
         <v>1727.0</v>
       </c>
       <c r="E229" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="230">
@@ -4597,7 +4747,7 @@
         <v>1728.0</v>
       </c>
       <c r="E230" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="231">
@@ -4614,7 +4764,7 @@
         <v>1729.0</v>
       </c>
       <c r="E231" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="232">
@@ -4631,7 +4781,7 @@
         <v>1730.0</v>
       </c>
       <c r="E232" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233">
@@ -4648,7 +4798,7 @@
         <v>1731.0</v>
       </c>
       <c r="E233" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="234">
@@ -4665,7 +4815,7 @@
         <v>1732.0</v>
       </c>
       <c r="E234" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
     </row>
     <row r="235">
@@ -4682,7 +4832,7 @@
         <v>1733.0</v>
       </c>
       <c r="E235" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="236">
@@ -4699,7 +4849,7 @@
         <v>1734.0</v>
       </c>
       <c r="E236" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="237">
@@ -4716,7 +4866,7 @@
         <v>1735.0</v>
       </c>
       <c r="E237" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="238">
@@ -4733,7 +4883,7 @@
         <v>1736.0</v>
       </c>
       <c r="E238" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="239">
@@ -4750,7 +4900,7 @@
         <v>1737.0</v>
       </c>
       <c r="E239" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
     </row>
     <row r="240">
@@ -4767,7 +4917,7 @@
         <v>1738.0</v>
       </c>
       <c r="E240" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
     </row>
     <row r="241">
@@ -4784,7 +4934,7 @@
         <v>1739.0</v>
       </c>
       <c r="E241" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="242">
@@ -4801,7 +4951,7 @@
         <v>1740.0</v>
       </c>
       <c r="E242" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="243">
@@ -4818,7 +4968,7 @@
         <v>1741.0</v>
       </c>
       <c r="E243" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="244">
@@ -4835,7 +4985,7 @@
         <v>1742.0</v>
       </c>
       <c r="E244" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="245">
@@ -4852,7 +5002,7 @@
         <v>1743.0</v>
       </c>
       <c r="E245" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="246">
@@ -4869,7 +5019,7 @@
         <v>1744.0</v>
       </c>
       <c r="E246" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
     </row>
     <row r="247">
@@ -4886,7 +5036,7 @@
         <v>1745.0</v>
       </c>
       <c r="E247" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="248">
@@ -4903,7 +5053,7 @@
         <v>1746.0</v>
       </c>
       <c r="E248" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="249">
@@ -4920,7 +5070,7 @@
         <v>1747.0</v>
       </c>
       <c r="E249" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="250">
@@ -4937,7 +5087,7 @@
         <v>1748.0</v>
       </c>
       <c r="E250" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
     </row>
     <row r="251">
@@ -4954,7 +5104,7 @@
         <v>1749.0</v>
       </c>
       <c r="E251" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="252">
@@ -4988,7 +5138,7 @@
         <v>1751.0</v>
       </c>
       <c r="E253" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="254">
@@ -5005,7 +5155,7 @@
         <v>1752.0</v>
       </c>
       <c r="E254" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="255">
@@ -5022,7 +5172,7 @@
         <v>1753.0</v>
       </c>
       <c r="E255" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="256">
@@ -5039,7 +5189,7 @@
         <v>1754.0</v>
       </c>
       <c r="E256" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="257">
@@ -5056,7 +5206,7 @@
         <v>1755.0</v>
       </c>
       <c r="E257" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="258">
@@ -5073,7 +5223,7 @@
         <v>1756.0</v>
       </c>
       <c r="E258" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
     </row>
     <row r="259">
@@ -5090,7 +5240,7 @@
         <v>1757.0</v>
       </c>
       <c r="E259" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
     </row>
     <row r="260">
@@ -5107,7 +5257,7 @@
         <v>1758.0</v>
       </c>
       <c r="E260" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="261">
@@ -5124,7 +5274,7 @@
         <v>1759.0</v>
       </c>
       <c r="E261" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="262">
@@ -5141,7 +5291,7 @@
         <v>1760.0</v>
       </c>
       <c r="E262" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
     </row>
     <row r="263">
@@ -5158,7 +5308,7 @@
         <v>1761.0</v>
       </c>
       <c r="E263" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="264">
@@ -5175,7 +5325,7 @@
         <v>1762.0</v>
       </c>
       <c r="E264" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="265">
@@ -5192,7 +5342,7 @@
         <v>1763.0</v>
       </c>
       <c r="E265" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="266">
@@ -5209,7 +5359,7 @@
         <v>1764.0</v>
       </c>
       <c r="E266" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
     </row>
     <row r="267">
@@ -5226,7 +5376,7 @@
         <v>1765.0</v>
       </c>
       <c r="E267" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="268">
@@ -5243,7 +5393,7 @@
         <v>1766.0</v>
       </c>
       <c r="E268" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269">
@@ -5260,7 +5410,7 @@
         <v>1767.0</v>
       </c>
       <c r="E269" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="270">
@@ -5277,7 +5427,7 @@
         <v>1768.0</v>
       </c>
       <c r="E270" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="271">
@@ -5294,7 +5444,7 @@
         <v>1769.0</v>
       </c>
       <c r="E271" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="272">
@@ -5311,7 +5461,7 @@
         <v>1770.0</v>
       </c>
       <c r="E272" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="273">
@@ -5328,7 +5478,7 @@
         <v>1771.0</v>
       </c>
       <c r="E273" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="274">
@@ -5345,7 +5495,7 @@
         <v>1772.0</v>
       </c>
       <c r="E274" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="275">
@@ -5362,7 +5512,7 @@
         <v>1773.0</v>
       </c>
       <c r="E275" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="276">
@@ -5379,7 +5529,7 @@
         <v>1774.0</v>
       </c>
       <c r="E276" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="277">
@@ -5396,7 +5546,7 @@
         <v>1775.0</v>
       </c>
       <c r="E277" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="278">
@@ -5413,7 +5563,7 @@
         <v>1776.0</v>
       </c>
       <c r="E278" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="279">
@@ -5430,7 +5580,7 @@
         <v>1777.0</v>
       </c>
       <c r="E279" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="280">
@@ -5447,7 +5597,7 @@
         <v>1778.0</v>
       </c>
       <c r="E280" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="281">
@@ -5464,7 +5614,7 @@
         <v>1779.0</v>
       </c>
       <c r="E281" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282">
@@ -5481,7 +5631,7 @@
         <v>1780.0</v>
       </c>
       <c r="E282" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="283">
@@ -5498,7 +5648,7 @@
         <v>1781.0</v>
       </c>
       <c r="E283" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="284">
@@ -5515,7 +5665,7 @@
         <v>1782.0</v>
       </c>
       <c r="E284" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="285">
@@ -5532,7 +5682,7 @@
         <v>1783.0</v>
       </c>
       <c r="E285" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="286">
@@ -5549,7 +5699,7 @@
         <v>1784.0</v>
       </c>
       <c r="E286" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="287">
@@ -5566,7 +5716,7 @@
         <v>1785.0</v>
       </c>
       <c r="E287" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="288">
@@ -5583,7 +5733,7 @@
         <v>1786.0</v>
       </c>
       <c r="E288" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="289">
@@ -5600,7 +5750,7 @@
         <v>1787.0</v>
       </c>
       <c r="E289" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="290">
@@ -5617,7 +5767,7 @@
         <v>1788.0</v>
       </c>
       <c r="E290" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="291">
@@ -5634,7 +5784,7 @@
         <v>1789.0</v>
       </c>
       <c r="E291" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="292">
@@ -5651,7 +5801,7 @@
         <v>1790.0</v>
       </c>
       <c r="E292" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="293">
@@ -5668,7 +5818,7 @@
         <v>1791.0</v>
       </c>
       <c r="E293" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="294">
@@ -5685,7 +5835,7 @@
         <v>1792.0</v>
       </c>
       <c r="E294" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="295">
@@ -5702,7 +5852,7 @@
         <v>1793.0</v>
       </c>
       <c r="E295" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="296">
@@ -5719,7 +5869,7 @@
         <v>1794.0</v>
       </c>
       <c r="E296" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="297">
@@ -5736,7 +5886,7 @@
         <v>1795.0</v>
       </c>
       <c r="E297" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="298">
@@ -5753,7 +5903,7 @@
         <v>1796.0</v>
       </c>
       <c r="E298" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="299">
@@ -5770,7 +5920,7 @@
         <v>1797.0</v>
       </c>
       <c r="E299" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="300">
@@ -5787,7 +5937,7 @@
         <v>1798.0</v>
       </c>
       <c r="E300" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="301">
@@ -5804,7 +5954,7 @@
         <v>1799.0</v>
       </c>
       <c r="E301" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="302">
@@ -5821,7 +5971,7 @@
         <v>1800.0</v>
       </c>
       <c r="E302" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="303">
@@ -5838,7 +5988,7 @@
         <v>1801.0</v>
       </c>
       <c r="E303" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="304">
@@ -5855,7 +6005,7 @@
         <v>1802.0</v>
       </c>
       <c r="E304" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="305">
@@ -5872,7 +6022,7 @@
         <v>1803.0</v>
       </c>
       <c r="E305" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="306">
@@ -5889,7 +6039,7 @@
         <v>1804.0</v>
       </c>
       <c r="E306" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="307">
@@ -5906,7 +6056,7 @@
         <v>1805.0</v>
       </c>
       <c r="E307" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="308">
@@ -5923,7 +6073,7 @@
         <v>1806.0</v>
       </c>
       <c r="E308" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="309">
@@ -5940,7 +6090,7 @@
         <v>1807.0</v>
       </c>
       <c r="E309" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
     </row>
     <row r="310">
@@ -5957,7 +6107,7 @@
         <v>1808.0</v>
       </c>
       <c r="E310" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="311">
@@ -5974,7 +6124,7 @@
         <v>1809.0</v>
       </c>
       <c r="E311" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
     <row r="312">
@@ -5991,7 +6141,7 @@
         <v>1810.0</v>
       </c>
       <c r="E312" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="313">
@@ -6008,7 +6158,7 @@
         <v>1811.0</v>
       </c>
       <c r="E313" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="314">
@@ -6025,7 +6175,7 @@
         <v>1812.0</v>
       </c>
       <c r="E314" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="315">
@@ -6042,7 +6192,7 @@
         <v>1813.0</v>
       </c>
       <c r="E315" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="316">
@@ -6059,7 +6209,7 @@
         <v>1814.0</v>
       </c>
       <c r="E316" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="317">
@@ -6076,7 +6226,7 @@
         <v>1815.0</v>
       </c>
       <c r="E317" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="318">
@@ -6093,7 +6243,7 @@
         <v>1816.0</v>
       </c>
       <c r="E318" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="319">
@@ -6110,7 +6260,7 @@
         <v>1817.0</v>
       </c>
       <c r="E319" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="320">
@@ -6127,7 +6277,7 @@
         <v>1818.0</v>
       </c>
       <c r="E320" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
     </row>
     <row r="321">
@@ -6144,7 +6294,7 @@
         <v>1819.0</v>
       </c>
       <c r="E321" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="322">
@@ -6161,7 +6311,7 @@
         <v>1820.0</v>
       </c>
       <c r="E322" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="323">
@@ -6178,7 +6328,7 @@
         <v>1821.0</v>
       </c>
       <c r="E323" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="324">
@@ -6195,7 +6345,7 @@
         <v>1822.0</v>
       </c>
       <c r="E324" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="325">
@@ -6212,7 +6362,7 @@
         <v>1823.0</v>
       </c>
       <c r="E325" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
     </row>
     <row r="326">
@@ -6229,7 +6379,7 @@
         <v>1824.0</v>
       </c>
       <c r="E326" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
     </row>
     <row r="327">
@@ -6263,7 +6413,7 @@
         <v>1826.0</v>
       </c>
       <c r="E328" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
     </row>
     <row r="329">
@@ -6280,7 +6430,7 @@
         <v>1827.0</v>
       </c>
       <c r="E329" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="330">
@@ -6314,7 +6464,7 @@
         <v>1829.0</v>
       </c>
       <c r="E331" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="332">
@@ -6331,7 +6481,7 @@
         <v>1830.0</v>
       </c>
       <c r="E332" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="333">
@@ -6348,7 +6498,7 @@
         <v>1831.0</v>
       </c>
       <c r="E333" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="334">
@@ -6365,7 +6515,7 @@
         <v>1832.0</v>
       </c>
       <c r="E334" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
     </row>
     <row r="335">
@@ -6382,7 +6532,7 @@
         <v>1833.0</v>
       </c>
       <c r="E335" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="336">
@@ -6399,7 +6549,7 @@
         <v>1834.0</v>
       </c>
       <c r="E336" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="337">
@@ -6416,7 +6566,7 @@
         <v>1835.0</v>
       </c>
       <c r="E337" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="338">
@@ -6433,7 +6583,7 @@
         <v>1836.0</v>
       </c>
       <c r="E338" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="339">
@@ -6450,7 +6600,7 @@
         <v>1837.0</v>
       </c>
       <c r="E339" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
     </row>
     <row r="340">
@@ -6467,7 +6617,7 @@
         <v>1838.0</v>
       </c>
       <c r="E340" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="341">
@@ -6484,7 +6634,7 @@
         <v>1839.0</v>
       </c>
       <c r="E341" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="342">
@@ -6501,7 +6651,7 @@
         <v>1840.0</v>
       </c>
       <c r="E342" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="343">
@@ -6518,7 +6668,7 @@
         <v>1841.0</v>
       </c>
       <c r="E343" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
     </row>
     <row r="344">
@@ -6535,7 +6685,7 @@
         <v>1842.0</v>
       </c>
       <c r="E344" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="345">
@@ -6552,7 +6702,7 @@
         <v>1843.0</v>
       </c>
       <c r="E345" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="346">
@@ -6569,7 +6719,7 @@
         <v>1844.0</v>
       </c>
       <c r="E346" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="347">
@@ -6586,7 +6736,7 @@
         <v>1845.0</v>
       </c>
       <c r="E347" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
     </row>
     <row r="348">
@@ -6603,7 +6753,7 @@
         <v>1846.0</v>
       </c>
       <c r="E348" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="349">
@@ -6620,7 +6770,7 @@
         <v>1847.0</v>
       </c>
       <c r="E349" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="350">
@@ -6637,7 +6787,7 @@
         <v>1848.0</v>
       </c>
       <c r="E350" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="351">
@@ -6654,7 +6804,7 @@
         <v>1849.0</v>
       </c>
       <c r="E351" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="352">
@@ -6671,7 +6821,7 @@
         <v>1850.0</v>
       </c>
       <c r="E352" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
     </row>
     <row r="353">
@@ -6688,7 +6838,7 @@
         <v>1851.0</v>
       </c>
       <c r="E353" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
     </row>
     <row r="354">
@@ -6705,7 +6855,7 @@
         <v>1852.0</v>
       </c>
       <c r="E354" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="355">
@@ -6722,7 +6872,7 @@
         <v>1853.0</v>
       </c>
       <c r="E355" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="356">
@@ -6739,7 +6889,7 @@
         <v>1854.0</v>
       </c>
       <c r="E356" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="357">
@@ -6756,7 +6906,7 @@
         <v>1855.0</v>
       </c>
       <c r="E357" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="358">
@@ -6773,7 +6923,7 @@
         <v>1856.0</v>
       </c>
       <c r="E358" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
     </row>
     <row r="359">
@@ -6790,7 +6940,7 @@
         <v>1857.0</v>
       </c>
       <c r="E359" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="360">
@@ -6807,7 +6957,7 @@
         <v>1858.0</v>
       </c>
       <c r="E360" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
     </row>
     <row r="361">
@@ -6824,7 +6974,7 @@
         <v>1859.0</v>
       </c>
       <c r="E361" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="362">
@@ -6841,7 +6991,7 @@
         <v>1860.0</v>
       </c>
       <c r="E362" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="363">
@@ -6858,7 +7008,7 @@
         <v>1861.0</v>
       </c>
       <c r="E363" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="364">
@@ -6875,7 +7025,7 @@
         <v>1862.0</v>
       </c>
       <c r="E364" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="365">
@@ -6892,7 +7042,7 @@
         <v>1863.0</v>
       </c>
       <c r="E365" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
     <row r="366">
@@ -6909,7 +7059,7 @@
         <v>1864.0</v>
       </c>
       <c r="E366" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="367">
@@ -6926,7 +7076,7 @@
         <v>1865.0</v>
       </c>
       <c r="E367" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
     </row>
     <row r="368">
@@ -6943,7 +7093,7 @@
         <v>1866.0</v>
       </c>
       <c r="E368" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="369">
@@ -6960,7 +7110,7 @@
         <v>1867.0</v>
       </c>
       <c r="E369" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row r="370">
@@ -6977,7 +7127,7 @@
         <v>1868.0</v>
       </c>
       <c r="E370" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="371">
@@ -6994,7 +7144,7 @@
         <v>1869.0</v>
       </c>
       <c r="E371" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="372">
@@ -7011,7 +7161,7 @@
         <v>1870.0</v>
       </c>
       <c r="E372" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="373">
@@ -7028,7 +7178,7 @@
         <v>1871.0</v>
       </c>
       <c r="E373" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
     </row>
     <row r="374">
@@ -7045,7 +7195,7 @@
         <v>1872.0</v>
       </c>
       <c r="E374" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
     </row>
     <row r="375">
@@ -7062,7 +7212,7 @@
         <v>1873.0</v>
       </c>
       <c r="E375" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
     </row>
     <row r="376">
@@ -7079,7 +7229,7 @@
         <v>1874.0</v>
       </c>
       <c r="E376" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="377">
@@ -7096,7 +7246,7 @@
         <v>1875.0</v>
       </c>
       <c r="E377" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
     </row>
     <row r="378">
@@ -7113,7 +7263,7 @@
         <v>1876.0</v>
       </c>
       <c r="E378" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
     </row>
     <row r="379">
@@ -7130,7 +7280,7 @@
         <v>1877.0</v>
       </c>
       <c r="E379" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
     </row>
     <row r="380">
@@ -7147,7 +7297,7 @@
         <v>1878.0</v>
       </c>
       <c r="E380" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
     </row>
     <row r="381">
@@ -7164,7 +7314,7 @@
         <v>1879.0</v>
       </c>
       <c r="E381" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
     </row>
     <row r="382">
@@ -7181,7 +7331,7 @@
         <v>1880.0</v>
       </c>
       <c r="E382" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
     </row>
     <row r="383">
@@ -7198,7 +7348,7 @@
         <v>1881.0</v>
       </c>
       <c r="E383" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
     </row>
     <row r="384">
@@ -7215,7 +7365,7 @@
         <v>1882.0</v>
       </c>
       <c r="E384" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
     </row>
     <row r="385">
@@ -7232,7 +7382,7 @@
         <v>1883.0</v>
       </c>
       <c r="E385" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
     </row>
     <row r="386">
@@ -7249,7 +7399,7 @@
         <v>1884.0</v>
       </c>
       <c r="E386" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
     </row>
     <row r="387">
@@ -7266,7 +7416,7 @@
         <v>1885.0</v>
       </c>
       <c r="E387" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
     </row>
     <row r="388">
@@ -7283,7 +7433,7 @@
         <v>1886.0</v>
       </c>
       <c r="E388" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
     </row>
     <row r="389">
@@ -7300,7 +7450,7 @@
         <v>1887.0</v>
       </c>
       <c r="E389" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
     </row>
     <row r="390">
@@ -7317,7 +7467,7 @@
         <v>1888.0</v>
       </c>
       <c r="E390" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
     </row>
     <row r="391">
@@ -7334,7 +7484,7 @@
         <v>1889.0</v>
       </c>
       <c r="E391" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="392">
@@ -7351,7 +7501,7 @@
         <v>1890.0</v>
       </c>
       <c r="E392" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
     </row>
     <row r="393">
@@ -7368,7 +7518,7 @@
         <v>1891.0</v>
       </c>
       <c r="E393" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
     </row>
     <row r="394">
@@ -7385,7 +7535,7 @@
         <v>1892.0</v>
       </c>
       <c r="E394" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
     </row>
     <row r="395">
@@ -7402,7 +7552,7 @@
         <v>1893.0</v>
       </c>
       <c r="E395" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
     </row>
     <row r="396">
@@ -7419,7 +7569,7 @@
         <v>1894.0</v>
       </c>
       <c r="E396" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
     </row>
     <row r="397">
@@ -7436,7 +7586,7 @@
         <v>1895.0</v>
       </c>
       <c r="E397" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
     </row>
     <row r="398">
@@ -7453,7 +7603,7 @@
         <v>1896.0</v>
       </c>
       <c r="E398" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
     </row>
     <row r="399">
@@ -7470,7 +7620,7 @@
         <v>1897.0</v>
       </c>
       <c r="E399" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
     </row>
     <row r="400">
@@ -7487,7 +7637,7 @@
         <v>1898.0</v>
       </c>
       <c r="E400" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
     </row>
     <row r="401">
@@ -7504,7 +7654,7 @@
         <v>1899.0</v>
       </c>
       <c r="E401" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
     </row>
     <row r="402">
@@ -7521,7 +7671,7 @@
         <v>1900.0</v>
       </c>
       <c r="E402" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
     </row>
     <row r="403">
@@ -7538,7 +7688,7 @@
         <v>1901.0</v>
       </c>
       <c r="E403" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
     </row>
     <row r="404">
@@ -7555,7 +7705,7 @@
         <v>1902.0</v>
       </c>
       <c r="E404" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
     </row>
     <row r="405">
@@ -7572,7 +7722,7 @@
         <v>1903.0</v>
       </c>
       <c r="E405" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
     </row>
     <row r="406">
@@ -7589,7 +7739,7 @@
         <v>1904.0</v>
       </c>
       <c r="E406" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
     </row>
     <row r="407">
@@ -7606,7 +7756,7 @@
         <v>1905.0</v>
       </c>
       <c r="E407" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
     </row>
     <row r="408">
@@ -7623,7 +7773,7 @@
         <v>1906.0</v>
       </c>
       <c r="E408" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="409">
@@ -7640,7 +7790,7 @@
         <v>1907.0</v>
       </c>
       <c r="E409" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
     </row>
     <row r="410">
@@ -7657,7 +7807,7 @@
         <v>1908.0</v>
       </c>
       <c r="E410" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
     </row>
     <row r="411">
@@ -7674,7 +7824,7 @@
         <v>1909.0</v>
       </c>
       <c r="E411" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
     </row>
     <row r="412">
@@ -7691,7 +7841,7 @@
         <v>1910.0</v>
       </c>
       <c r="E412" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
     </row>
     <row r="413">
@@ -7708,7 +7858,7 @@
         <v>1911.0</v>
       </c>
       <c r="E413" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
     </row>
     <row r="414">
@@ -7725,7 +7875,7 @@
         <v>1912.0</v>
       </c>
       <c r="E414" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
     </row>
     <row r="415">
@@ -7742,7 +7892,7 @@
         <v>1913.0</v>
       </c>
       <c r="E415" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
     </row>
     <row r="416">
@@ -7759,7 +7909,7 @@
         <v>1914.0</v>
       </c>
       <c r="E416" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
     </row>
     <row r="417">
@@ -7776,7 +7926,7 @@
         <v>1915.0</v>
       </c>
       <c r="E417" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
     </row>
     <row r="418">
@@ -7793,7 +7943,7 @@
         <v>1916.0</v>
       </c>
       <c r="E418" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
     </row>
     <row r="419">
@@ -7810,7 +7960,7 @@
         <v>1917.0</v>
       </c>
       <c r="E419" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
     </row>
     <row r="420">
@@ -7827,7 +7977,7 @@
         <v>1918.0</v>
       </c>
       <c r="E420" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
     </row>
     <row r="421">
@@ -7844,7 +7994,7 @@
         <v>1919.0</v>
       </c>
       <c r="E421" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
     </row>
     <row r="422">
@@ -7861,7 +8011,7 @@
         <v>1920.0</v>
       </c>
       <c r="E422" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
     </row>
     <row r="423">
@@ -7878,7 +8028,7 @@
         <v>1921.0</v>
       </c>
       <c r="E423" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
     </row>
     <row r="424">
@@ -7895,7 +8045,7 @@
         <v>1922.0</v>
       </c>
       <c r="E424" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
     </row>
     <row r="425">
@@ -7912,7 +8062,7 @@
         <v>1923.0</v>
       </c>
       <c r="E425" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
     </row>
     <row r="426">
@@ -7929,7 +8079,7 @@
         <v>1924.0</v>
       </c>
       <c r="E426" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
     </row>
     <row r="427">
@@ -7946,7 +8096,7 @@
         <v>1925.0</v>
       </c>
       <c r="E427" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
     </row>
     <row r="428">
@@ -7963,7 +8113,7 @@
         <v>1926.0</v>
       </c>
       <c r="E428" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
     </row>
     <row r="429">
@@ -7980,7 +8130,7 @@
         <v>1927.0</v>
       </c>
       <c r="E429" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
     </row>
     <row r="430">
@@ -7997,7 +8147,7 @@
         <v>1928.0</v>
       </c>
       <c r="E430" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
     </row>
     <row r="431">
@@ -8014,7 +8164,7 @@
         <v>1929.0</v>
       </c>
       <c r="E431" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
     </row>
     <row r="432">
@@ -8031,7 +8181,7 @@
         <v>1930.0</v>
       </c>
       <c r="E432" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
     </row>
     <row r="433">
@@ -8048,7 +8198,7 @@
         <v>1931.0</v>
       </c>
       <c r="E433" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
     </row>
     <row r="434">
@@ -8065,7 +8215,7 @@
         <v>1932.0</v>
       </c>
       <c r="E434" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
     </row>
     <row r="435">
@@ -8082,7 +8232,7 @@
         <v>1933.0</v>
       </c>
       <c r="E435" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
     </row>
     <row r="436">
@@ -8099,7 +8249,7 @@
         <v>1934.0</v>
       </c>
       <c r="E436" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
     </row>
     <row r="437">
@@ -8116,7 +8266,7 @@
         <v>1935.0</v>
       </c>
       <c r="E437" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
     </row>
     <row r="438">
@@ -8133,7 +8283,7 @@
         <v>1936.0</v>
       </c>
       <c r="E438" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
     </row>
     <row r="439">
@@ -8150,7 +8300,7 @@
         <v>1937.0</v>
       </c>
       <c r="E439" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
     </row>
     <row r="440">
@@ -8167,7 +8317,7 @@
         <v>1938.0</v>
       </c>
       <c r="E440" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
     </row>
     <row r="441">
@@ -8184,7 +8334,7 @@
         <v>1939.0</v>
       </c>
       <c r="E441" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
     </row>
     <row r="442">
@@ -8201,7 +8351,7 @@
         <v>1940.0</v>
       </c>
       <c r="E442" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
     </row>
     <row r="443">
@@ -8218,7 +8368,7 @@
         <v>1941.0</v>
       </c>
       <c r="E443" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
     </row>
     <row r="444">
@@ -8235,7 +8385,7 @@
         <v>1942.0</v>
       </c>
       <c r="E444" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
     </row>
     <row r="445">
@@ -8252,7 +8402,7 @@
         <v>1943.0</v>
       </c>
       <c r="E445" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
     </row>
     <row r="446">
@@ -8269,7 +8419,7 @@
         <v>1944.0</v>
       </c>
       <c r="E446" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
     </row>
     <row r="447">
@@ -8286,7 +8436,7 @@
         <v>1945.0</v>
       </c>
       <c r="E447" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
     </row>
     <row r="448">
@@ -8303,7 +8453,7 @@
         <v>1946.0</v>
       </c>
       <c r="E448" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
     </row>
     <row r="449">
@@ -8320,7 +8470,7 @@
         <v>1947.0</v>
       </c>
       <c r="E449" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
     </row>
     <row r="450">
@@ -8337,7 +8487,7 @@
         <v>1948.0</v>
       </c>
       <c r="E450" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
     </row>
     <row r="451">
@@ -8354,7 +8504,7 @@
         <v>1949.0</v>
       </c>
       <c r="E451" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
     </row>
     <row r="452">
@@ -8371,7 +8521,7 @@
         <v>1950.0</v>
       </c>
       <c r="E452" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
     </row>
     <row r="453">
@@ -8388,7 +8538,7 @@
         <v>1951.0</v>
       </c>
       <c r="E453" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
     </row>
     <row r="454">
@@ -8405,7 +8555,7 @@
         <v>1952.0</v>
       </c>
       <c r="E454" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
     </row>
     <row r="455">
@@ -8422,7 +8572,7 @@
         <v>1953.0</v>
       </c>
       <c r="E455" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
     </row>
     <row r="456">
@@ -8439,7 +8589,7 @@
         <v>1954.0</v>
       </c>
       <c r="E456" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
     </row>
     <row r="457">
@@ -8456,7 +8606,7 @@
         <v>1955.0</v>
       </c>
       <c r="E457" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
     </row>
     <row r="458">
@@ -8473,7 +8623,7 @@
         <v>1956.0</v>
       </c>
       <c r="E458" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
     </row>
     <row r="459">
@@ -8490,7 +8640,7 @@
         <v>1957.0</v>
       </c>
       <c r="E459" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
     </row>
     <row r="460">
@@ -8507,7 +8657,7 @@
         <v>1958.0</v>
       </c>
       <c r="E460" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
     </row>
     <row r="461">
@@ -8524,7 +8674,7 @@
         <v>1959.0</v>
       </c>
       <c r="E461" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
     </row>
     <row r="462">
@@ -8541,7 +8691,7 @@
         <v>1960.0</v>
       </c>
       <c r="E462" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
     </row>
     <row r="463">
@@ -8558,7 +8708,7 @@
         <v>1961.0</v>
       </c>
       <c r="E463" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
     </row>
     <row r="464">
@@ -8575,7 +8725,7 @@
         <v>1962.0</v>
       </c>
       <c r="E464" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
     </row>
     <row r="465">
@@ -8592,7 +8742,7 @@
         <v>1963.0</v>
       </c>
       <c r="E465" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
     </row>
     <row r="466">
@@ -8609,7 +8759,7 @@
         <v>1964.0</v>
       </c>
       <c r="E466" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
     </row>
     <row r="467">
@@ -8626,7 +8776,7 @@
         <v>1965.0</v>
       </c>
       <c r="E467" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
     </row>
     <row r="468">
@@ -8643,7 +8793,7 @@
         <v>1966.0</v>
       </c>
       <c r="E468" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
     </row>
     <row r="469">
@@ -8660,7 +8810,7 @@
         <v>1967.0</v>
       </c>
       <c r="E469" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
     </row>
     <row r="470">
@@ -8677,7 +8827,7 @@
         <v>1968.0</v>
       </c>
       <c r="E470" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
     </row>
     <row r="471">
@@ -8694,7 +8844,7 @@
         <v>1969.0</v>
       </c>
       <c r="E471" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row r="472">
@@ -8711,7 +8861,7 @@
         <v>1970.0</v>
       </c>
       <c r="E472" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
     </row>
     <row r="473">
@@ -8728,7 +8878,7 @@
         <v>1971.0</v>
       </c>
       <c r="E473" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
     </row>
     <row r="474">
@@ -8745,7 +8895,7 @@
         <v>1972.0</v>
       </c>
       <c r="E474" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
     </row>
     <row r="475">
@@ -8762,7 +8912,7 @@
         <v>1973.0</v>
       </c>
       <c r="E475" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
     </row>
     <row r="476">
@@ -8779,7 +8929,7 @@
         <v>1974.0</v>
       </c>
       <c r="E476" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
     </row>
     <row r="477">
@@ -8796,7 +8946,7 @@
         <v>1975.0</v>
       </c>
       <c r="E477" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
     </row>
     <row r="478">
@@ -8813,7 +8963,7 @@
         <v>1976.0</v>
       </c>
       <c r="E478" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
     </row>
     <row r="479">
@@ -8830,7 +8980,7 @@
         <v>1977.0</v>
       </c>
       <c r="E479" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
     </row>
     <row r="480">
@@ -8847,7 +8997,7 @@
         <v>1978.0</v>
       </c>
       <c r="E480" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
     </row>
     <row r="481">
@@ -8864,7 +9014,7 @@
         <v>1979.0</v>
       </c>
       <c r="E481" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
     </row>
     <row r="482">
@@ -8881,7 +9031,7 @@
         <v>1980.0</v>
       </c>
       <c r="E482" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
     </row>
     <row r="483">
@@ -8898,7 +9048,7 @@
         <v>1981.0</v>
       </c>
       <c r="E483" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="484">
@@ -8915,7 +9065,7 @@
         <v>1982.0</v>
       </c>
       <c r="E484" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
     </row>
     <row r="485">
@@ -8932,7 +9082,7 @@
         <v>1983.0</v>
       </c>
       <c r="E485" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
     </row>
     <row r="486">
@@ -8949,7 +9099,7 @@
         <v>1984.0</v>
       </c>
       <c r="E486" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
     </row>
     <row r="487">
@@ -8966,7 +9116,7 @@
         <v>1985.0</v>
       </c>
       <c r="E487" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
     </row>
     <row r="488">
@@ -8983,7 +9133,7 @@
         <v>1986.0</v>
       </c>
       <c r="E488" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
     </row>
     <row r="489">
@@ -9000,7 +9150,7 @@
         <v>1987.0</v>
       </c>
       <c r="E489" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
     </row>
     <row r="490">
@@ -9017,7 +9167,7 @@
         <v>1988.0</v>
       </c>
       <c r="E490" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
     </row>
     <row r="491">
@@ -9034,7 +9184,7 @@
         <v>1989.0</v>
       </c>
       <c r="E491" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
     </row>
     <row r="492">
@@ -9051,7 +9201,7 @@
         <v>1990.0</v>
       </c>
       <c r="E492" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
     </row>
     <row r="493">
@@ -9068,7 +9218,7 @@
         <v>1991.0</v>
       </c>
       <c r="E493" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
     </row>
     <row r="494">
@@ -9085,7 +9235,7 @@
         <v>1992.0</v>
       </c>
       <c r="E494" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
     </row>
     <row r="495">
@@ -9102,7 +9252,7 @@
         <v>1993.0</v>
       </c>
       <c r="E495" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
     </row>
     <row r="496">
@@ -9119,7 +9269,7 @@
         <v>1994.0</v>
       </c>
       <c r="E496" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
     </row>
     <row r="497">
@@ -9136,7 +9286,7 @@
         <v>1995.0</v>
       </c>
       <c r="E497" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
     </row>
     <row r="498">
@@ -9153,7 +9303,7 @@
         <v>1996.0</v>
       </c>
       <c r="E498" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
     </row>
     <row r="499">
@@ -9170,7 +9320,7 @@
         <v>1997.0</v>
       </c>
       <c r="E499" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
     </row>
     <row r="500">
@@ -9187,7 +9337,7 @@
         <v>1998.0</v>
       </c>
       <c r="E500" t="s">
-        <v>184</v>
+        <v>228</v>
       </c>
     </row>
     <row r="501">
@@ -9204,7 +9354,7 @@
         <v>1999.0</v>
       </c>
       <c r="E501" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
     </row>
     <row r="502">
@@ -9221,7 +9371,7 @@
         <v>2000.0</v>
       </c>
       <c r="E502" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
     </row>
     <row r="503">
@@ -9238,7 +9388,7 @@
         <v>2001.0</v>
       </c>
       <c r="E503" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
     </row>
     <row r="504">
@@ -9255,7 +9405,7 @@
         <v>2002.0</v>
       </c>
       <c r="E504" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
     </row>
     <row r="505">
@@ -9272,7 +9422,7 @@
         <v>2003.0</v>
       </c>
       <c r="E505" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
     </row>
     <row r="506">
@@ -9289,7 +9439,7 @@
         <v>2004.0</v>
       </c>
       <c r="E506" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
     </row>
     <row r="507">
@@ -9306,7 +9456,7 @@
         <v>2005.0</v>
       </c>
       <c r="E507" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
     </row>
     <row r="508">
@@ -9323,7 +9473,7 @@
         <v>2006.0</v>
       </c>
       <c r="E508" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
     </row>
     <row r="509">
@@ -9340,7 +9490,7 @@
         <v>2007.0</v>
       </c>
       <c r="E509" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
     </row>
     <row r="510">
@@ -9357,7 +9507,7 @@
         <v>2008.0</v>
       </c>
       <c r="E510" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
     </row>
     <row r="511">
@@ -9374,7 +9524,7 @@
         <v>2009.0</v>
       </c>
       <c r="E511" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
     </row>
     <row r="512">
@@ -9391,7 +9541,109 @@
         <v>2010.0</v>
       </c>
       <c r="E512" t="s">
-        <v>196</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="B513" t="s">
+        <v>5</v>
+      </c>
+      <c r="C513" t="s">
+        <v>6</v>
+      </c>
+      <c r="D513" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E513" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="B514" t="s">
+        <v>5</v>
+      </c>
+      <c r="C514" t="s">
+        <v>6</v>
+      </c>
+      <c r="D514" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E514" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="B515" t="s">
+        <v>5</v>
+      </c>
+      <c r="C515" t="s">
+        <v>6</v>
+      </c>
+      <c r="D515" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E515" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="B516" t="s">
+        <v>5</v>
+      </c>
+      <c r="C516" t="s">
+        <v>6</v>
+      </c>
+      <c r="D516" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E516" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="B517" t="s">
+        <v>5</v>
+      </c>
+      <c r="C517" t="s">
+        <v>6</v>
+      </c>
+      <c r="D517" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E517" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="B518" t="s">
+        <v>5</v>
+      </c>
+      <c r="C518" t="s">
+        <v>6</v>
+      </c>
+      <c r="D518" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E518" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -9409,50 +9661,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="B1" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
